--- a/public/data/soil/soil_table_benin.xlsx
+++ b/public/data/soil/soil_table_benin.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>171230.1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>259.103</v>
+        <v>269.106</v>
       </c>
     </row>
     <row r="3">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>181828.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>118.297</v>
+        <v>122.417</v>
       </c>
     </row>
     <row r="4">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>137256.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>199.433</v>
+        <v>210.264</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>95184.3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>77.066</v>
+        <v>105.339</v>
       </c>
     </row>
     <row r="6">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>117513.7</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.155</v>
+        <v>177.83</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>156790.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>108.841</v>
+        <v>110.164</v>
       </c>
     </row>
     <row r="8">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15573.2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>35353.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>22.513</v>
+        <v>25.228</v>
       </c>
       <c r="K8" t="n">
-        <v>46.833</v>
+        <v>49.865</v>
       </c>
     </row>
     <row r="9">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>556.5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>40150.8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.034</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.418</v>
+        <v>56.869</v>
       </c>
     </row>
     <row r="10">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>502.3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139318.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.322</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>107.789</v>
+        <v>103.008</v>
       </c>
     </row>
     <row r="11">
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24871.2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>117763.8</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.045</v>
+        <v>9.339</v>
       </c>
       <c r="K11" t="n">
-        <v>94.552</v>
+        <v>116.094</v>
       </c>
     </row>
     <row r="12">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>81008.9</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>105.497</v>
+        <v>117.322</v>
       </c>
     </row>
     <row r="13">
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41656.2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17147.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.356</v>
+        <v>88.885</v>
       </c>
       <c r="K13" t="n">
-        <v>19.401</v>
+        <v>13.963</v>
       </c>
     </row>
     <row r="14">
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>834.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84908.9</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.702</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>78.723</v>
+        <v>82.342</v>
       </c>
     </row>
     <row r="15">
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>8189.6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>119170.1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.211</v>
+        <v>12.809</v>
       </c>
       <c r="K15" t="n">
-        <v>67.93</v>
+        <v>84.531</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15687.7</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34778</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.061</v>
+        <v>17.542</v>
       </c>
       <c r="K16" t="n">
-        <v>68.57</v>
+        <v>68.972</v>
       </c>
     </row>
     <row r="17">
@@ -1409,16 +1409,16 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>1451.1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5593</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>16638.1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.128</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>7.417</v>
+        <v>16.003</v>
       </c>
     </row>
     <row r="18">
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>997.6</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>18559</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.649</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>46.776</v>
+        <v>52.539</v>
       </c>
     </row>
     <row r="19">
@@ -1479,28 +1479,28 @@
         <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>938.2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8560.4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.413</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>27.621</v>
+        <v>16.329</v>
       </c>
     </row>
     <row r="20">
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2644.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6297.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.097</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.418</v>
+        <v>34.569</v>
       </c>
     </row>
     <row r="21">
@@ -1549,19 +1549,19 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>2097</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2993.4</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.634</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>23920.1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>48.84</v>
+        <v>49.715</v>
       </c>
     </row>
     <row r="23">
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>737.7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>16587</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.338</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>35.946</v>
+        <v>45.491</v>
       </c>
     </row>
     <row r="24">
@@ -1654,28 +1654,28 @@
         <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>762.7</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>116.4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3892.2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>27723.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.069</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.566</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.393</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>74.634</v>
+        <v>60.88</v>
       </c>
     </row>
     <row r="25">
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1319.7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>147414.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.467</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>134.679</v>
+        <v>140.655</v>
       </c>
     </row>
     <row r="26">
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>529.8</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>148233.1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.188</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>197.572</v>
+        <v>198.351</v>
       </c>
     </row>
     <row r="27">
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>5390.7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>131725.6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.848</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>121.173</v>
+        <v>127.685</v>
       </c>
     </row>
     <row r="28">
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>20904</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>129340.2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.032</v>
+        <v>3.434</v>
       </c>
       <c r="K28" t="n">
-        <v>141.023</v>
+        <v>162.609</v>
       </c>
     </row>
     <row r="29">
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2010.4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>26867.4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.452</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>28.714</v>
+        <v>9.012</v>
       </c>
     </row>
     <row r="30">
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>12247.9</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>73838.4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.657</v>
+        <v>5.246</v>
       </c>
       <c r="K30" t="n">
-        <v>77.683</v>
+        <v>79.868</v>
       </c>
     </row>
     <row r="31">
@@ -1905,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>226.7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98469.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>97.209</v>
+        <v>102.007</v>
       </c>
     </row>
     <row r="32">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6019.7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>222213.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.625</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>280.147</v>
+        <v>288.438</v>
       </c>
     </row>
     <row r="33">
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2726.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>80473.3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.813</v>
+        <v>1.357</v>
       </c>
       <c r="K33" t="n">
-        <v>103.599</v>
+        <v>112.352</v>
       </c>
     </row>
     <row r="34">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65455.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>99.267</v>
+        <v>105.801</v>
       </c>
     </row>
     <row r="35">
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>67458.8</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>114.323</v>
+        <v>119.164</v>
       </c>
     </row>
     <row r="36">
@@ -2080,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>155.3</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>99734.1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.166</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>141.478</v>
+        <v>156.586</v>
       </c>
     </row>
     <row r="37">
@@ -2115,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98899.3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>145.816</v>
+        <v>145.918</v>
       </c>
     </row>
     <row r="38">
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>73295.6</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>83.848</v>
+        <v>75.354</v>
       </c>
     </row>
     <row r="39">
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25813.6</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>124220.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>36.571</v>
+        <v>34.302</v>
       </c>
       <c r="K39" t="n">
-        <v>128.287</v>
+        <v>117.146</v>
       </c>
     </row>
     <row r="40">
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1733.8</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43764.2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.45</v>
+        <v>59.181</v>
       </c>
     </row>
     <row r="41">
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>26324.1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>134109.5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.523</v>
+        <v>31.915</v>
       </c>
       <c r="K41" t="n">
-        <v>187.079</v>
+        <v>203.788</v>
       </c>
     </row>
     <row r="42">
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>13189.5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.313</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>23.704</v>
+        <v>21.736</v>
       </c>
     </row>
     <row r="43">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3789.9</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32180.3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.128</v>
+        <v>10.712</v>
       </c>
       <c r="K43" t="n">
-        <v>68.733</v>
+        <v>48.616</v>
       </c>
     </row>
     <row r="44">
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>40635.7</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>101.66</v>
+        <v>58.437</v>
       </c>
     </row>
     <row r="45">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>11952.1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>9.498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2424,28 +2424,28 @@
         <v>81</v>
       </c>
       <c r="D46" t="n">
-        <v>200.8</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>351.7</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16154.3</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.958</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>28.835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>18672.3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>46.311</v>
+        <v>81.205</v>
       </c>
     </row>
     <row r="48">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>19814.5</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>51.657</v>
+        <v>44.971</v>
       </c>
     </row>
     <row r="49">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>5615.9</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>319.6</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>303.1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>406.4</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>12046.9</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.985</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.019</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>33.224</v>
+        <v>35.824</v>
       </c>
     </row>
     <row r="52">
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>915.2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>15078.8</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>45.435</v>
+        <v>40.785</v>
       </c>
     </row>
     <row r="53">
@@ -2675,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>98.3</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>3833.6</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>4.956</v>
+        <v>16.439</v>
       </c>
     </row>
     <row r="54">
@@ -2710,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1729.9</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>5448.8</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>7.68</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>18.132</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="55">
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>126.8</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>14137.2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>27.821</v>
+        <v>18.341</v>
       </c>
     </row>
     <row r="56">
@@ -2774,28 +2774,28 @@
         <v>93</v>
       </c>
       <c r="D56" t="n">
-        <v>653.4</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>2317.5</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>13738.4</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>7.834</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.797</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>28.066</v>
+        <v>57.644</v>
       </c>
     </row>
     <row r="57">
@@ -2809,16 +2809,16 @@
         <v>95</v>
       </c>
       <c r="D57" t="n">
-        <v>1150.9</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1356.6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>203.2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5471.7</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>8055.4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>11.398</v>
+        <v>28.857</v>
       </c>
       <c r="K58" t="n">
-        <v>24.286</v>
+        <v>29.492</v>
       </c>
     </row>
     <row r="59">
@@ -2879,19 +2879,19 @@
         <v>97</v>
       </c>
       <c r="D59" t="n">
-        <v>3307.5</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>21.1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2.893</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2914,16 +2914,16 @@
         <v>98</v>
       </c>
       <c r="D60" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>528.5</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1927.4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2932,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2949,16 +2949,16 @@
         <v>99</v>
       </c>
       <c r="D61" t="n">
-        <v>193.3</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1282.6</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>603.2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>310.8</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>11399.7</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3002,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.916</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>29.912</v>
+        <v>18.884</v>
       </c>
     </row>
     <row r="63">
@@ -3019,28 +3019,28 @@
         <v>101</v>
       </c>
       <c r="D63" t="n">
-        <v>1398.9</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>4732.9</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>472.5</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.989</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3054,16 +3054,16 @@
         <v>102</v>
       </c>
       <c r="D64" t="n">
-        <v>948.7</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>667.3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3089,19 +3089,19 @@
         <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>2677</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2069.7</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>20463.3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>65.936</v>
+        <v>87.573</v>
       </c>
     </row>
     <row r="67">
@@ -3159,16 +3159,16 @@
         <v>106</v>
       </c>
       <c r="D67" t="n">
-        <v>578.1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>77.1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>5540.7</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>7.038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3197,25 +3197,25 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>162.3</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>70187.8</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>157.943</v>
+        <v>164.89</v>
       </c>
     </row>
     <row r="69">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>19794.6</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>64.758</v>
+        <v>68.511</v>
       </c>
     </row>
     <row r="70">
@@ -3267,25 +3267,25 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>179.9</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>19935.8</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.657</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>60.366</v>
+        <v>45.943</v>
       </c>
     </row>
     <row r="71">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>6171.3</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>9.118</v>
+        <v>14.547</v>
       </c>
     </row>
     <row r="72">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>10531.5</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>23.045</v>
+        <v>17.975</v>
       </c>
     </row>
     <row r="73">
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>7620.7</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1.207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>17598.5</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>31.158</v>
+        <v>43.002</v>
       </c>
     </row>
     <row r="75">
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>82688.9</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>125.726</v>
+        <v>129.743</v>
       </c>
     </row>
     <row r="76">
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>14977.3</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>49.51</v>
+        <v>88.346</v>
       </c>
     </row>
     <row r="77">
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>17796.6</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>39.461</v>
+        <v>47.953</v>
       </c>
     </row>
     <row r="78">
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>90.9</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>22303.5</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>47.579</v>
+        <v>28.976</v>
       </c>
     </row>
     <row r="79">
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>105.8</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>36334.3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.269</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>77.761</v>
+        <v>76.082</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_benin.xlsx
+++ b/public/data/soil/soil_table_benin.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>117989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>67468.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>90799.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>77447</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>68746.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>37449.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6565.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>23147.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25154.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>55499.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6306.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>39001.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>44072.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17427.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7299.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>27589.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>7254.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>18582.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>8596.7</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8775.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3373.5</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8552.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>16529.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24485.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>12661.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>18411.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3373.5</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4243.9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40224.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>12035.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5974.1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>41098.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>30520.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>41916.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>24275.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2164.8</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47365.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>13913.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>962.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>18858.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42863.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>506.4</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>35009.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>762.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>47476.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71688.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>79051.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>119510.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52379.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>25216.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>12943.8</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>35507.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>17613.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2338.3</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>28319</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4964.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>902.4</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>17897.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>71462.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>28111.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41340.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>22153</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>24062.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>23056</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>14187.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>32213.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>12581.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1653</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>12022.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>11347</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>35861.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5107.1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5974.1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>9285.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>97</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>9844.1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>6726.6</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>6605.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>6605.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>19232.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>9957</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>102</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>6726.6</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>11620.1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>65407.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>25633</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>94115.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>50841.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>61125.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>10282.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>11420.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>9361.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>36739.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>77816</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>30345.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>38988.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>46737.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>33500.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
